--- a/12_要求分析再レビュー.xlsx
+++ b/12_要求分析再レビュー.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="21929"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D7D39D-5105-4B84-B5F6-258A79ADD450}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBA59D97-D4EC-4B0A-9E67-90CEEC15F597}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3000" yWindow="1110" windowWidth="13320" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4830" yWindow="15" windowWidth="13320" windowHeight="9810" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="概要" sheetId="7" r:id="rId1"/>
@@ -442,13 +442,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>蜂須賀</t>
-    <rPh sb="0" eb="3">
-      <t>ハチスカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>蜂須賀(敬称略)、出山、森、国吉、内山、金光、馬場</t>
     <rPh sb="9" eb="11">
       <t>デヤマ</t>
@@ -467,6 +460,13 @@
     </rPh>
     <rPh sb="23" eb="25">
       <t>ババ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>蜂須賀(敬称略)</t>
+    <rPh sb="0" eb="3">
+      <t>ハチスカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1357,8 +1357,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:D20"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:D4"/>
+    <sheetView tabSelected="1" view="pageLayout" topLeftCell="A4" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1403,7 +1403,7 @@
     </row>
     <row r="4" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B4" s="25"/>
       <c r="C4" s="25"/>
@@ -1421,7 +1421,7 @@
     </row>
     <row r="6" spans="1:4" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B6" s="32"/>
       <c r="C6" s="31" t="s">
